--- a/dataset/Matching_Results_Comparison/阈值设置35.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置35.xlsx
@@ -617,11 +617,7 @@
           <t>['4.综合医疗服务类其他费用', '病理诊断名称', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>2.869374693628249</v>
       </c>
@@ -640,7 +636,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -682,7 +678,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -724,7 +720,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>主要诊断疾病编码</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -749,7 +745,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>主要诊断诊断名称</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -774,7 +770,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>主要诊断入院病情</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -799,7 +795,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>主要诊断诊断名称</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -820,7 +816,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -845,7 +841,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -870,7 +866,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -916,7 +912,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -966,7 +962,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -991,7 +987,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1012,7 +1008,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1108,7 +1104,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1133,7 +1129,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1158,7 +1154,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1183,7 +1179,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1204,7 +1200,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1300,7 +1296,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1350,7 +1346,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1375,7 +1371,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1421,7 +1417,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1542,7 +1538,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1567,7 +1563,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1613,7 +1609,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1684,7 +1680,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1709,7 +1705,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1734,7 +1730,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1780,7 +1776,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1805,7 +1801,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1830,7 +1826,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1876,7 +1872,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1901,7 +1897,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1926,7 +1922,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1951,7 +1947,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1972,7 +1968,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2022,7 +2018,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2047,7 +2043,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2068,7 +2064,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2118,7 +2114,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2143,7 +2139,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2164,7 +2160,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2189,7 +2185,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2214,7 +2210,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2239,7 +2235,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2285,7 +2281,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2310,7 +2306,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2335,7 +2331,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2356,7 +2352,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2381,7 +2377,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2406,7 +2402,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2452,7 +2448,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2477,7 +2473,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2502,7 +2498,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2548,7 +2544,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2573,7 +2569,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2598,7 +2594,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2623,7 +2619,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2644,7 +2640,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2669,7 +2665,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2694,7 +2690,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2719,7 +2715,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2740,7 +2736,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2765,7 +2761,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2790,7 +2786,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2815,7 +2811,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2836,7 +2832,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2861,7 +2857,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2886,7 +2882,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2932,7 +2928,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2957,7 +2953,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2982,7 +2978,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3007,7 +3003,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3028,7 +3024,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3103,7 +3099,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3124,7 +3120,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3149,7 +3145,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3174,7 +3170,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3199,7 +3195,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3220,7 +3216,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3245,7 +3241,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3270,7 +3266,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3316,7 +3312,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3341,7 +3337,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3366,7 +3362,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3412,7 +3408,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3437,7 +3433,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3487,7 +3483,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3508,7 +3504,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3533,7 +3529,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3558,7 +3554,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3583,7 +3579,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3604,7 +3600,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3629,7 +3625,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3654,7 +3650,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3679,7 +3675,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3700,7 +3696,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3725,7 +3721,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3750,7 +3746,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3775,7 +3771,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3796,7 +3792,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3821,7 +3817,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3846,7 +3842,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3871,7 +3867,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3892,7 +3888,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3917,7 +3913,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3942,7 +3938,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3967,7 +3963,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3988,7 +3984,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4013,7 +4009,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -4038,7 +4034,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4084,7 +4080,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4109,7 +4105,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4134,7 +4130,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4159,7 +4155,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4180,7 +4176,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4205,7 +4201,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4230,7 +4226,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4255,7 +4251,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4276,7 +4272,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4301,7 +4297,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4326,7 +4322,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -4351,7 +4347,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -4372,7 +4368,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4397,7 +4393,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -4422,7 +4418,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -4447,7 +4443,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4468,7 +4464,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4493,7 +4489,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4518,7 +4514,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4543,7 +4539,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4564,7 +4560,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断疾病编码</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4589,7 +4585,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4614,7 +4610,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4639,7 +4635,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出院31天再住院计划目的</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4660,7 +4656,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理诊断名称</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4710,7 +4706,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理号</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4735,7 +4731,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理诊断名称</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4760,7 +4756,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理诊断名称</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4785,7 +4781,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理号</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4810,7 +4806,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理诊断名称</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4835,7 +4831,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理诊断名称</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4860,7 +4856,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>病理号</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4885,7 +4881,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>疾病编码</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4948,7 +4944,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其中：抗菌药物费</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4969,7 +4965,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4990,7 +4986,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5032,7 +5028,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -5053,7 +5049,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -5074,7 +5070,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -5116,7 +5112,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -5137,7 +5133,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>门（急）诊诊断名称</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -5158,7 +5154,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>门（急）诊诊断名称</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -5179,7 +5175,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -5200,7 +5196,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -5221,7 +5217,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>23.手术用一次性医用材料费</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -5242,7 +5238,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -5263,7 +5259,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -5305,7 +5301,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -5326,7 +5322,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -5347,7 +5343,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -5368,7 +5364,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>23.手术用一次性医用材料费</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -5389,7 +5385,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -5498,7 +5494,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -5523,7 +5519,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -5548,7 +5544,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -5594,7 +5590,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -5615,7 +5611,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -5657,7 +5653,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -5682,7 +5678,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -5749,7 +5745,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -5774,7 +5770,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -5824,7 +5820,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -5933,7 +5929,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -5958,7 +5954,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -6075,7 +6071,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -6100,7 +6096,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -6125,7 +6121,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -6146,7 +6142,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -6167,7 +6163,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -6188,7 +6184,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -6209,7 +6205,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -6234,7 +6230,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -6259,7 +6255,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -6280,7 +6276,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -6301,7 +6297,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -6326,7 +6322,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -6351,7 +6347,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -6376,7 +6372,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -6464,7 +6460,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -6485,7 +6481,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -6510,7 +6506,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -6577,7 +6573,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -6602,7 +6598,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -6627,7 +6623,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -6652,7 +6648,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -6677,7 +6673,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -6698,7 +6694,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -6719,7 +6715,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -6740,7 +6736,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -6761,7 +6757,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -6786,7 +6782,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -6832,7 +6828,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -6853,7 +6849,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -6878,7 +6874,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -6903,7 +6899,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -6928,7 +6924,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -7062,7 +7058,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -7108,7 +7104,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -7129,7 +7125,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -7154,7 +7150,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -7179,7 +7175,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -7204,7 +7200,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -7271,7 +7267,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -7292,7 +7288,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -7313,7 +7309,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -7338,7 +7334,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -7405,7 +7401,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -7430,7 +7426,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -7455,7 +7451,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -7480,7 +7476,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -7614,7 +7610,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -7681,7 +7677,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -7706,7 +7702,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -7731,7 +7727,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -7756,7 +7752,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -7844,7 +7840,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -7865,7 +7861,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -7890,7 +7886,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -7957,7 +7953,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -7982,7 +7978,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -8007,7 +8003,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -8032,7 +8028,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -8099,7 +8095,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -8120,7 +8116,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -8141,7 +8137,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -8166,7 +8162,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -8233,7 +8229,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -8258,7 +8254,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -8283,7 +8279,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -8333,7 +8329,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.手术治疗费</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -8354,7 +8350,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.手术治疗费</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -8375,7 +8371,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.手术治疗费</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -8396,7 +8392,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.手术治疗费</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -8417,7 +8413,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -8442,7 +8438,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -8488,7 +8484,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.手术治疗费</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -8509,7 +8505,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -8534,7 +8530,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -8559,7 +8555,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -8584,7 +8580,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -8609,7 +8605,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -8693,7 +8689,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -8718,7 +8714,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -8764,7 +8760,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -8785,7 +8781,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -8810,7 +8806,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -8835,7 +8831,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -8860,7 +8856,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -8885,7 +8881,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -8927,7 +8923,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -8969,7 +8965,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -8994,7 +8990,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -9040,7 +9036,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -9061,7 +9057,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -9086,7 +9082,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -9111,7 +9107,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -9136,7 +9132,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -9203,7 +9199,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -9270,7 +9266,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -9295,7 +9291,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -9316,7 +9312,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -9337,7 +9333,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -9362,7 +9358,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -9387,7 +9383,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -9412,7 +9408,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -9437,7 +9433,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -9458,7 +9454,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -9479,7 +9475,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -9500,7 +9496,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -9546,7 +9542,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -9571,7 +9567,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -9592,7 +9588,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -9613,7 +9609,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -9638,7 +9634,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -9663,7 +9659,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -9688,7 +9684,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -9734,7 +9730,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -9755,7 +9751,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -9776,7 +9772,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -9822,7 +9818,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -9847,7 +9843,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -9868,7 +9864,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -9889,7 +9885,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -9914,7 +9910,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -9939,7 +9935,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -9989,7 +9985,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -10010,7 +10006,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -10031,7 +10027,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -10052,7 +10048,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -10098,7 +10094,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -10144,7 +10140,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -10165,7 +10161,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -10190,7 +10186,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -10215,7 +10211,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -10307,7 +10303,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -10328,7 +10324,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -10374,7 +10370,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -10420,7 +10416,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -10441,7 +10437,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -10466,7 +10462,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D431" t="n">
@@ -10491,7 +10487,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -10516,7 +10512,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -10541,7 +10537,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -10583,7 +10579,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -10604,7 +10600,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -10650,7 +10646,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -10675,7 +10671,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -10696,7 +10692,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D441" t="n">
@@ -10717,7 +10713,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -10742,7 +10738,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -10767,7 +10763,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -10792,7 +10788,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -10817,7 +10813,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D446" t="n">
@@ -10838,7 +10834,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -10880,7 +10876,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -10901,7 +10897,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -10926,7 +10922,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D451" t="n">
@@ -10972,7 +10968,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -10993,7 +10989,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -11018,7 +11014,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -11043,7 +11039,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -11068,7 +11064,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -11114,7 +11110,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -11135,7 +11131,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -11156,7 +11152,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D461" t="n">
@@ -11177,7 +11173,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -11202,7 +11198,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -11227,7 +11223,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -11248,7 +11244,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -11269,7 +11265,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -11294,7 +11290,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -11319,7 +11315,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -11344,7 +11340,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -11369,7 +11365,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -11411,7 +11407,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -11432,7 +11428,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -11478,7 +11474,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -11524,7 +11520,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -11545,7 +11541,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -11570,7 +11566,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -11595,7 +11591,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -11620,7 +11616,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D481" t="n">
@@ -11687,7 +11683,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -11708,7 +11704,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -11754,7 +11750,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -11800,7 +11796,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -11821,7 +11817,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -11846,7 +11842,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -11871,7 +11867,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -11896,7 +11892,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -11963,7 +11959,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -11984,7 +11980,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -12030,7 +12026,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -12055,7 +12051,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -12076,7 +12072,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -12097,7 +12093,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -12122,7 +12118,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -12147,7 +12143,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -12172,7 +12168,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -12197,7 +12193,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -12218,7 +12214,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -12239,7 +12235,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -12306,7 +12302,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -12331,7 +12327,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -12352,7 +12348,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -12373,7 +12369,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -12398,7 +12394,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -12423,7 +12419,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -12448,7 +12444,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -12473,7 +12469,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -12494,7 +12490,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -12515,7 +12511,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -12536,7 +12532,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D521" t="n">
@@ -12582,7 +12578,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -12607,7 +12603,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -12628,7 +12624,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -12649,7 +12645,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D526" t="n">
@@ -12674,7 +12670,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -12699,7 +12695,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -12724,7 +12720,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -12749,7 +12745,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -12770,7 +12766,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -12791,7 +12787,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -12858,7 +12854,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -12883,7 +12879,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D536" t="n">
@@ -12904,7 +12900,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -12925,7 +12921,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -12950,7 +12946,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -12975,7 +12971,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -13000,7 +12996,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D541" t="n">
@@ -13025,7 +13021,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -13046,7 +13042,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -13067,7 +13063,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -13088,7 +13084,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -13134,7 +13130,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -13180,7 +13176,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -13201,7 +13197,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -13226,7 +13222,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D551" t="n">
@@ -13251,7 +13247,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -13276,7 +13272,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -13322,7 +13318,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -13343,7 +13339,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D556" t="n">
@@ -13364,7 +13360,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -13385,7 +13381,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -13410,7 +13406,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -13435,7 +13431,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -13456,7 +13452,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D561" t="n">
@@ -13477,7 +13473,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -13502,7 +13498,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -13527,7 +13523,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -13552,7 +13548,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -13577,7 +13573,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D566" t="n">
@@ -13598,7 +13594,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -13661,7 +13657,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -13686,7 +13682,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D571" t="n">
@@ -13711,7 +13707,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -13732,7 +13728,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -13753,7 +13749,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -13778,7 +13774,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -13803,7 +13799,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D576" t="n">
@@ -13853,7 +13849,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -13874,7 +13870,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -13895,7 +13891,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -13916,7 +13912,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D581" t="n">
@@ -13962,7 +13958,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -13987,7 +13983,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -14008,7 +14004,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -14029,7 +14025,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D586" t="n">
@@ -14054,7 +14050,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -14079,7 +14075,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -14104,7 +14100,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -14150,7 +14146,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D591" t="n">
@@ -14192,7 +14188,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -14213,7 +14209,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -14238,7 +14234,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -14263,7 +14259,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D596" t="n">
@@ -14284,7 +14280,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -14305,7 +14301,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -14330,7 +14326,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -14355,7 +14351,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -14380,7 +14376,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D601" t="n">
@@ -14447,7 +14443,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -14468,7 +14464,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -14514,7 +14510,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -14539,7 +14535,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -14560,7 +14556,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -14581,7 +14577,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -14606,7 +14602,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D611" t="n">
@@ -14631,7 +14627,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -14656,7 +14652,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -14681,7 +14677,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -14702,7 +14698,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -14723,7 +14719,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D616" t="n">
@@ -14744,7 +14740,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -14790,7 +14786,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -14815,7 +14811,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D620" t="n">
@@ -14836,7 +14832,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D621" t="n">
@@ -14857,7 +14853,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -14882,7 +14878,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -14907,7 +14903,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -14932,7 +14928,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -14957,7 +14953,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D626" t="n">
@@ -14978,7 +14974,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -14999,7 +14995,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -15020,7 +15016,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -15041,7 +15037,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -15066,7 +15062,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D631" t="n">
@@ -15091,7 +15087,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -15112,7 +15108,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -15133,7 +15129,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -15158,7 +15154,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -15183,7 +15179,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -15208,7 +15204,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -15254,7 +15250,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -15275,7 +15271,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -15296,7 +15292,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D641" t="n">
@@ -15342,7 +15338,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -15367,7 +15363,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -15388,7 +15384,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -15409,7 +15405,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D646" t="n">
@@ -15434,7 +15430,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -15459,7 +15455,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -15484,7 +15480,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -15530,7 +15526,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D651" t="n">
@@ -15551,7 +15547,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -15572,7 +15568,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -15593,7 +15589,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>切口愈合等级</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -15618,7 +15614,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -15643,7 +15639,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -15664,7 +15660,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -15685,7 +15681,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -15710,7 +15706,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -15735,7 +15731,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -15760,7 +15756,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D661" t="n">
@@ -15785,7 +15781,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -15806,7 +15802,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -15848,7 +15844,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -15894,7 +15890,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -15919,7 +15915,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -15940,7 +15936,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -15961,7 +15957,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -15986,7 +15982,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D671" t="n">
@@ -16011,7 +16007,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -16036,7 +16032,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -16061,7 +16057,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -16082,7 +16078,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -16124,7 +16120,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -16170,7 +16166,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -16195,7 +16191,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -16216,7 +16212,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D681" t="n">
@@ -16237,7 +16233,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -16262,7 +16258,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -16287,7 +16283,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -16312,7 +16308,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -16337,7 +16333,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D686" t="n">
@@ -16358,7 +16354,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -16379,7 +16375,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -16400,7 +16396,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -16446,7 +16442,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D691" t="n">
@@ -16471,7 +16467,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -16492,7 +16488,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -16513,7 +16509,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -16538,7 +16534,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -16563,7 +16559,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D696" t="n">
@@ -16588,7 +16584,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术级别</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -16613,7 +16609,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -16634,7 +16630,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -16655,7 +16651,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -16676,7 +16672,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D701" t="n">
@@ -16697,7 +16693,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -16722,7 +16718,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -16768,7 +16764,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -16789,7 +16785,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D706" t="n">
@@ -16810,7 +16806,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -16873,7 +16869,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>23.手术用一次性医用材料费</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -16894,7 +16890,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D711" t="n">
@@ -16915,7 +16911,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>23.手术用一次性医用材料费</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -16936,7 +16932,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -16957,7 +16953,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -16999,7 +16995,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>门（急）诊诊断疾病编码</t>
         </is>
       </c>
       <c r="D716" t="n">
@@ -17020,7 +17016,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>门（急）诊诊断疾病编码</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -17041,7 +17037,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.护理费</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -17060,11 +17056,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '4.综合医疗服务类其他费用']</t>
         </is>
       </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C719" t="inlineStr"/>
       <c r="D719" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -17230,7 +17222,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>门（急）诊诊断名称</t>
         </is>
       </c>
       <c r="D727" t="n">
@@ -17272,7 +17264,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D729" t="n">
@@ -17297,7 +17289,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D730" t="n">
@@ -17322,7 +17314,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D731" t="n">
@@ -17347,7 +17339,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D732" t="n">
@@ -17372,7 +17364,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D733" t="n">
@@ -17397,7 +17389,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D734" t="n">
@@ -17422,7 +17414,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D735" t="n">
@@ -17447,7 +17439,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D736" t="n">
@@ -17472,7 +17464,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D737" t="n">
@@ -17497,7 +17489,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -17522,7 +17514,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>出重症监护室时间</t>
         </is>
       </c>
       <c r="D739" t="n">
@@ -17547,7 +17539,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D740" t="n">
@@ -17572,7 +17564,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>重症监护室名称</t>
         </is>
       </c>
       <c r="D741" t="n">
@@ -17597,7 +17589,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -17622,7 +17614,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D743" t="n">
@@ -17647,7 +17639,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>住院总费用</t>
         </is>
       </c>
       <c r="D744" t="n">
@@ -17697,7 +17689,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.一般医疗服务费</t>
         </is>
       </c>
       <c r="D746" t="n">
@@ -17722,7 +17714,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1.一般医疗服务费</t>
         </is>
       </c>
       <c r="D747" t="n">
@@ -17747,7 +17739,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>12.中医治疗费</t>
         </is>
       </c>
       <c r="D748" t="n">
@@ -17770,11 +17762,7 @@
           <t>['4.综合医疗服务类其他费用', '医疗付费方式', '1.一般医疗服务费']</t>
         </is>
       </c>
-      <c r="C749" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C749" t="inlineStr"/>
       <c r="D749" t="n">
         <v>15.64642656702327</v>
       </c>
@@ -17797,7 +17785,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5.病理诊断费</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -17947,7 +17935,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>12.中医治疗费</t>
         </is>
       </c>
       <c r="D756" t="n">
@@ -17972,7 +17960,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其中：麻醉费</t>
         </is>
       </c>
       <c r="D757" t="n">
@@ -18097,7 +18085,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>其中：抗菌药物费</t>
         </is>
       </c>
       <c r="D762" t="n">
@@ -18197,7 +18185,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>17.白蛋白类制品费</t>
         </is>
       </c>
       <c r="D766" t="n">
@@ -18222,7 +18210,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>17.白蛋白类制品费</t>
         </is>
       </c>
       <c r="D767" t="n">
@@ -18391,7 +18379,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>0</v>
+        <v>0.4481865284974093</v>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr"/>
@@ -18417,7 +18405,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr"/>
@@ -18430,7 +18418,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr"/>
@@ -18443,7 +18431,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr"/>
@@ -18456,7 +18444,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
@@ -18469,7 +18457,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr"/>
